--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.072035315691318</v>
+        <v>-5.66411658229459</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.98218306087457</v>
+        <v>-18.69844487703046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-34.92495953246906</v>
+        <v>-34.57828077496964</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5643005794729029</v>
+        <v>-0.5130850266418211</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6357843509104577</v>
+        <v>-0.6507301964815873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5948355072592846</v>
+        <v>-0.5969643647363549</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.66666852051668</v>
+        <v>11.78202071506764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.70094976539673</v>
+        <v>3.92581040143826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-16.43103566564684</v>
+        <v>-16.87483842298089</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.674891585826659</v>
+        <v>2.79033147517789</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3105607314189893</v>
+        <v>0.2846643614625108</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.3456680302951812</v>
+        <v>-0.3509644070999891</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-2.56748124351495</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-14.59503447789456</v>
+        <v>-14.59503447789455</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3142336094247138</v>
@@ -709,7 +709,7 @@
         <v>-0.4800998479136803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4614019824517927</v>
+        <v>-0.4614019824517924</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.57769741853561</v>
+        <v>-11.71148443912975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.818342764367098</v>
+        <v>-6.712241112483486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-22.52011362556767</v>
+        <v>-23.02606729435194</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6181285648344111</v>
+        <v>-0.6325513674478003</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8269519741701881</v>
+        <v>-0.8480461524052632</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6028492734655938</v>
+        <v>-0.6129848191094855</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.318574896827555</v>
+        <v>2.535418783274396</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9365615328184282</v>
+        <v>0.8069236485931686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-7.259006521094245</v>
+        <v>-7.444282307029805</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4205942358269896</v>
+        <v>0.2990644132908848</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.531325813051683</v>
+        <v>0.5156954061207712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2670818074041805</v>
+        <v>-0.274606127901126</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-2.64083069131188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.632613207432504</v>
+        <v>-1.632613207432498</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.09340989450668846</v>
@@ -791,7 +791,7 @@
         <v>-0.1738171607120609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.04542919641199061</v>
+        <v>-0.04542919641199046</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.822007303483956</v>
+        <v>-7.17565965210282</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.95052501727288</v>
+        <v>-11.21127579636187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.632026955148223</v>
+        <v>-9.590956417391421</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6164127438898763</v>
+        <v>-0.5654558053301573</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5651202519211499</v>
+        <v>-0.5806516808734806</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2352058455194002</v>
+        <v>-0.2356357742207022</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.411342281684606</v>
+        <v>7.920772155470117</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.704566436464328</v>
+        <v>5.372727143795718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.568087494220125</v>
+        <v>6.831981897313881</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.633404939413851</v>
+        <v>1.907078727308882</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5655337940395585</v>
+        <v>0.4903122190483046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1984870435331647</v>
+        <v>0.2350097363807364</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-5.405121785566388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.3250398218567596</v>
+        <v>-0.3250398218567652</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1687020717843354</v>
@@ -873,7 +873,7 @@
         <v>-0.3299369119598758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01040431922689323</v>
+        <v>-0.0104043192268934</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.912503092102702</v>
+        <v>-6.023006408416465</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.62099380825641</v>
+        <v>-13.25094484096748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.964666000393884</v>
+        <v>-8.639138882375301</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5199004604979531</v>
+        <v>-0.5231281201441927</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6291450645661653</v>
+        <v>-0.6441022810996747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2211810324998006</v>
+        <v>-0.2299981490748024</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.779758091687201</v>
+        <v>8.031428920634509</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.361380470656425</v>
+        <v>1.582258632974994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.012433788488011</v>
+        <v>7.753276964492957</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.905279468232849</v>
+        <v>1.878854428720166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2283914918628084</v>
+        <v>0.160572439016169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3322026499295473</v>
+        <v>0.2940443957140622</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.3321733557806572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.851960554768543</v>
+        <v>-2.85196055476854</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.1013648487515255</v>
@@ -955,7 +955,7 @@
         <v>0.09735186195403366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1731769936811734</v>
+        <v>-0.1731769936811733</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.974971821467605</v>
+        <v>-10.05420877599073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.851664325041505</v>
+        <v>-5.02848148057413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.58501819574171</v>
+        <v>-9.991954295707709</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7838371223950884</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.7521660829540346</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.4917679974411852</v>
+        <v>-0.4735722414477405</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +990,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.018977634778562</v>
+        <v>6.812914601095521</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.248408905334346</v>
+        <v>5.503370042736808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.889268795069752</v>
+        <v>4.385614325783758</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.919798009237969</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>4.661880014525493</v>
-      </c>
+        <v>1.98701451328815</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.343962493442881</v>
+        <v>0.3732988616974503</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1024,7 @@
         <v>-2.711499754045164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-5.138415747137421</v>
+        <v>-5.138415747137423</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.4917302986911332</v>
@@ -1037,7 +1033,7 @@
         <v>-0.2986151366247516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1790684715171864</v>
+        <v>-0.1790684715171865</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1044,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-12.0246627614679</v>
+        <v>-12.41088279993492</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.21925507735021</v>
+        <v>-10.15765444523753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-13.55340764612151</v>
+        <v>-13.52629635242014</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8372720456920663</v>
+        <v>-0.8564696057464586</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7459533495686533</v>
+        <v>-0.7328373667645656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4047838197663463</v>
+        <v>-0.4155077253307127</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1070,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.639959423446691</v>
+        <v>1.05430343497721</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.365176093480493</v>
+        <v>4.353350473317532</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.453197528110645</v>
+        <v>1.831387753382036</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3895944454997913</v>
+        <v>0.3758653659216019</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7837885184078616</v>
+        <v>1.046593027028468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.108004519005558</v>
+        <v>0.06931921463913161</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1106,7 @@
         <v>-5.622492889639616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7409218765020875</v>
+        <v>0.7409218765020931</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.01479122797782096</v>
@@ -1119,7 +1115,7 @@
         <v>-0.3573014624782879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02001377782480179</v>
+        <v>0.02001377782480194</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1126,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.937440002073295</v>
+        <v>-5.0139731124198</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.62399448285649</v>
+        <v>-11.78676463719567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.292907623354433</v>
+        <v>-5.768688093074618</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4797554579685979</v>
+        <v>-0.4856458674078626</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6179071890772839</v>
+        <v>-0.6224951657080234</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1505474672088978</v>
+        <v>-0.1424754007436757</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1152,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.192333388672476</v>
+        <v>5.041145977612723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3842071880754812</v>
+        <v>0.5639751025398059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.302637482674198</v>
+        <v>7.513435847196984</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.095774706258541</v>
+        <v>0.9836488768925868</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02323961896017853</v>
+        <v>0.04878002240460841</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2172441644687206</v>
+        <v>0.2354275994291637</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1188,7 @@
         <v>-4.754472941093462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-3.795657104104383</v>
+        <v>-3.795657104104377</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5707459041696097</v>
@@ -1201,7 +1197,7 @@
         <v>-0.5665327421684262</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.09192952553170151</v>
+        <v>-0.09192952553170139</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1208,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-11.37906717471476</v>
+        <v>-11.11593540964567</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-9.411997231956445</v>
+        <v>-9.043436945581854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-10.22854597428771</v>
+        <v>-9.697173429366691</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.799881413959141</v>
+        <v>-0.7833673632034706</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8013970821751264</v>
+        <v>-0.8131793667110371</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2255493741497379</v>
+        <v>-0.2145745505961236</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1234,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.467212574594258</v>
+        <v>-1.268775382582633</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-1.011043764731899</v>
+        <v>-0.9821212044297107</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.277462869340081</v>
+        <v>2.480012160397408</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1487632366309826</v>
+        <v>-0.11717450985446</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1056566087108002</v>
+        <v>-0.1193096779980819</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06335525443380657</v>
+        <v>0.06685335520955581</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1290,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.265223213685456</v>
+        <v>-4.326929062285305</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.68813377661812</v>
+        <v>-6.585348052253409</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.442143998865669</v>
+        <v>-8.662309606867989</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.3863188384715708</v>
+        <v>-0.4068850721209947</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.5091073050835536</v>
+        <v>-0.5057390689734269</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2242660659634012</v>
+        <v>-0.2276373590721985</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1316,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4745563194675836</v>
+        <v>0.3656813721042818</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.176955371180532</v>
+        <v>-1.998656398677975</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.051218628527574</v>
+        <v>-3.076275634056883</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.07376240079636191</v>
+        <v>0.0398127644468779</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.2013397537051824</v>
+        <v>-0.1909535387916147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.0901003541192576</v>
+        <v>-0.09098234357762264</v>
       </c>
     </row>
     <row r="31">
